--- a/public/uploads/excel/receiver.xlsx
+++ b/public/uploads/excel/receiver.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>province_code</t>
+  </si>
+  <si>
+    <t>branch_code</t>
   </si>
 </sst>
 </file>
@@ -359,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -373,9 +376,10 @@
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,6 +397,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/excel/receiver.xlsx
+++ b/public/uploads/excel/receiver.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>branch_code</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>branch_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>address2</t>
   </si>
 </sst>
 </file>
@@ -362,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,9 +389,13 @@
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="6" width="16.77734375" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,6 +416,18 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/excel/receiver.xlsx
+++ b/public/uploads/excel/receiver.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>address2</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,7 +401,7 @@
     <col min="11" max="11" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,9 +434,16 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>